--- a/data/sgm/SIG.xlsx
+++ b/data/sgm/SIG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695"/>
+    <workbookView windowWidth="20490" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="351">
   <si>
     <t>LÝ THUYẾT CHUNG ĐÁNH TÍN HIỆU TÀU BAY</t>
   </si>
@@ -2078,6 +2078,137 @@
   </si>
   <si>
     <t xml:space="preserve">Bay treo. </t>
+  </si>
+  <si>
+    <t>Tàu bay phải tuân theo mọi hướng dẫn của nhân viên đánh tín hiệu</t>
+  </si>
+  <si>
+    <t>Vị trí đứng của nhân viên Đánh tín hiệu khi thực hiện nhiệm vụ: Nhân viên đánh tín hiệu phải đứng quay mặt về phía tàu bay. Đối với trực thăng là:</t>
+  </si>
+  <si>
+    <t>Ở bên phải tàu bay nơi tổ lái được nhìn thấy rõ nhất</t>
+  </si>
+  <si>
+    <t>ở chính giữa tàu bay, thẳng theo vệt lăn vào vị trí đỗ.</t>
+  </si>
+  <si>
+    <t>Ở bên trái tàu bay nơi tổ lái được nhìn thấy rõ nhất</t>
+  </si>
+  <si>
+    <t>Ở vị trí mà tổ lái có thể nhìn thấy rõ nhất</t>
+  </si>
+  <si>
+    <t>Chuyên cơ: Đối với chuyến bay đến: …… phút trước khi tàu bay hạ cánh, dành riêng đường cất hạ cánh đã được xác định để phục vụ chuyên cơ.</t>
+  </si>
+  <si>
+    <t>Đối với chuyến bay chuyên cơ đi: Vị trí đỗ của tàu bay chuyên cơ được bảo vệ và cách ly từ thời điểm tàu bay chuyên cơ…..</t>
+  </si>
+  <si>
+    <t>vào vị trí để thực hiện các công việc chuẩn bị cho chuyến bay.</t>
+  </si>
+  <si>
+    <t>bắt đầu nổ máy để khởi hành.</t>
+  </si>
+  <si>
+    <t>đóng tất cả các cửa tàu bay</t>
+  </si>
+  <si>
+    <t>Đối với chuyến bay chuyên cơ đi: sau khi tàu bay chuyên cơ ……. thì khu vực sân đỗ được trở lại hoạt động bình thường.</t>
+  </si>
+  <si>
+    <t>lên đường cất hạ cánh</t>
+  </si>
+  <si>
+    <t>rời khỏi khu vực sân đỗ</t>
+  </si>
+  <si>
+    <t>lên đường lăn</t>
+  </si>
+  <si>
+    <t>cất cánh</t>
+  </si>
+  <si>
+    <t>Cơ sở ATS bao gồm:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a) Cơ sở điều hành bay bao gồm đài kiểm soát tại sân bay, cơ sở kiểm soát tiếp cận, trung tâm kiểm soát đường dài;
+b) Phòng thủ tục bay;
+c) Cơ sở, bộ phận đánh tín hiệu tại sân bay;
+d) Cơ sở thông báo, hiệp đồng bay;
+đ) Trạm thông báo bay tại sân bay.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a) Phòng thủ tục bay;
+b) Cơ sở, bộ phận đánh tín hiệu tại sân bay;
+c) Cơ sở thông báo, hiệp đồng bay;
+d) Trạm thông báo bay tại sân bay.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a) Cơ sở điều hành bay bao gồm đài kiểm soát tại sân bay, cơ sở kiểm soát tiếp cận, trung tâm kiểm soát đường dài;
+b) Phòng thủ tục bay;
+c) Cơ sở thông báo, hiệp đồng bay;
+d) Trạm thông báo bay tại sân bay.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a) Cơ sở điều hành bay bao gồm đài kiểm soát tại sân bay, cơ sở kiểm soát tiếp cận, trung tâm kiểm soát đường dài;
+b) Cơ sở, bộ phận đánh tín hiệu tại sân bay;
+c) Cơ sở thông báo, hiệp đồng bay;
+d) Trạm thông báo bay tại sân bay.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khu vực di chuyển tại sân bay (Manoeuvring Area) là </t>
+  </si>
+  <si>
+    <t>một phần của sân bay được sử dụng cho tàu bay cất cánh, hạ cánh và lăn bánh,  bao gồm sân đỗ tàu bay</t>
+  </si>
+  <si>
+    <t>một phần của sân bay được sử dụng cho tàu bay cất cánh, hạ cánh, lăn bánh và đỗ.</t>
+  </si>
+  <si>
+    <t>một phần của sân bay được sử dụng cho tàu bay cất cánh, hạ cánh và lăn bánh, không bao gồm sân đỗ tàu bay</t>
+  </si>
+  <si>
+    <t>Cả 3 đều sai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khu vực hoạt động tại sân bay (Movement Area) là </t>
+  </si>
+  <si>
+    <t>một phần của sân bay được sử dụng cho tàu bay cất cánh, hạ cánh, lăn bánh và đỗ</t>
+  </si>
+  <si>
+    <t>một phần của sân bay được sử dụng cho tàu bay cất cánh, hạ cánh, lăn bánh và đỗ, bao gồm khu vực di chuyển và sân đỗ tàu bay.</t>
+  </si>
+  <si>
+    <t>một phần của sân bay được sử dụng cho tàu bay cất cánh, hạ cánh, lăn bánh và đỗ,không bao gồm khu vực di chuyển và sân đỗ tàu bay.</t>
+  </si>
+  <si>
+    <t>Sân đỗ tàu bay (Apron) là</t>
+  </si>
+  <si>
+    <t>khu vực được xác định trong sân bay dành cho tàu bay đỗ để phục vụ hành khách lên, xuống; xếp, dỡ hành lý, bưu gửi, hàng hóa; tiếp nhiên liệu; cung ứng suất ăn.</t>
+  </si>
+  <si>
+    <t>khu vực được xác định trong sân bay dành cho tàu bay đỗ để phục vụ hành khách lên, xuống; xếp, dỡ hành lý, bưu gửi, hàng hóa; tiếp nhiên liệu; cung ứng suất ăn; phục vụ kỹ thuật hoặc bảo dưỡng tàu bay.</t>
+  </si>
+  <si>
+    <t>khu vực được xác định trong sân bay dành cho tàu bay đỗ để dỡ hành lý, bưu gửi, hàng hóa; tiếp nhiên liệu; cung ứng suất ăn; phục vụ kỹ thuật hoặc bảo dưỡng tàu bay.</t>
+  </si>
+  <si>
+    <t>Nhân viên đánh tín hiệu phải …………. , nếu không tàu bay có thể bị va chạm do tuân theo hướng dẫn của mình.</t>
+  </si>
+  <si>
+    <t>quan sát khu vực mà mình hướng dẫn tàu bay di chuyển tới vị trí chỉ định hoàn toàn không có chướng ngại vật</t>
+  </si>
+  <si>
+    <t>quan sát và đảm bảo chắc chắn rằng khu vực mà mình hướng dẫn tàu bay di chuyển tới vị trí chỉ định hoàn toàn không có chướng ngại vật</t>
+  </si>
+  <si>
+    <t>đảm bảo chắc chắn rằng khu vực tàu bay di chuyển tới không có chướng ngại vật.</t>
   </si>
 </sst>
 </file>
@@ -2085,10 +2216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2119,8 +2250,33 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2133,11 +2289,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2151,63 +2306,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2227,6 +2326,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -2236,7 +2366,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2256,8 +2386,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2285,7 +2416,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2294,13 +2425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2312,7 +2437,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2324,7 +2467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2336,25 +2479,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2372,19 +2503,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2396,49 +2563,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2450,31 +2605,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2512,15 +2649,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2545,21 +2673,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2570,21 +2683,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2604,21 +2702,60 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2630,134 +2767,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2773,6 +2910,31 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3125,10 +3287,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:G164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G153"/>
+      <selection activeCell="A1" sqref="A1:G164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3235,7 +3397,7 @@
       <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -4210,7 +4372,7 @@
       <c r="C52" s="5">
         <v>2</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="15" t="s">
         <v>154</v>
       </c>
       <c r="E52" s="4" t="s">
@@ -4219,7 +4381,7 @@
       <c r="F52" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G52" s="15" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4294,7 +4456,7 @@
       <c r="C56" s="5">
         <v>1</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E56" s="4" t="s">
@@ -4313,7 +4475,7 @@
       <c r="C57" s="5">
         <v>2</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E57" s="4" t="s">
@@ -4332,7 +4494,7 @@
       <c r="C58" s="5">
         <v>2</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E58" s="4" t="s">
@@ -4351,7 +4513,7 @@
       <c r="C59" s="5">
         <v>2</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E59" s="4" t="s">
@@ -4370,7 +4532,7 @@
       <c r="C60" s="5">
         <v>1</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="15" t="s">
         <v>163</v>
       </c>
       <c r="E60" s="4" t="s">
@@ -4379,7 +4541,7 @@
       <c r="F60" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="G60" s="15" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4393,7 +4555,7 @@
       <c r="C61" s="5">
         <v>1</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E61" s="4" t="s">
@@ -4412,7 +4574,7 @@
       <c r="C62" s="5">
         <v>2</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E62" s="4" t="s">
@@ -4431,7 +4593,7 @@
       <c r="C63" s="5">
         <v>2</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E63" s="4" t="s">
@@ -4450,7 +4612,7 @@
       <c r="C64" s="5">
         <v>1</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E64" s="4" t="s">
@@ -4469,7 +4631,7 @@
       <c r="C65" s="5">
         <v>2</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E65" s="4" t="s">
@@ -4488,7 +4650,7 @@
       <c r="C66" s="5">
         <v>3</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="15" t="s">
         <v>163</v>
       </c>
       <c r="E66" s="4" t="s">
@@ -4497,7 +4659,7 @@
       <c r="F66" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="G66" s="15" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4511,7 +4673,7 @@
       <c r="C67" s="5">
         <v>2</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E67" s="4" t="s">
@@ -4530,7 +4692,7 @@
       <c r="C68" s="5">
         <v>1</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E68" s="4" t="s">
@@ -4549,7 +4711,7 @@
       <c r="C69" s="5">
         <v>2</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E69" s="4" t="s">
@@ -4568,7 +4730,7 @@
       <c r="C70" s="5">
         <v>2</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E70" s="4" t="s">
@@ -4610,7 +4772,7 @@
       <c r="C72" s="5">
         <v>1</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E72" s="4" t="s">
@@ -4629,7 +4791,7 @@
       <c r="C73" s="5">
         <v>2</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E73" s="4" t="s">
@@ -4648,7 +4810,7 @@
       <c r="C74" s="5">
         <v>2</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E74" s="4" t="s">
@@ -4667,7 +4829,7 @@
       <c r="C75" s="5">
         <v>2</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E75" s="4" t="s">
@@ -4686,7 +4848,7 @@
       <c r="C76" s="5">
         <v>4</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="15" t="s">
         <v>186</v>
       </c>
       <c r="E76" s="4" t="s">
@@ -4695,7 +4857,7 @@
       <c r="F76" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="G76" s="15" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4709,7 +4871,7 @@
       <c r="C77" s="5">
         <v>2</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E77" s="4" t="s">
@@ -4728,7 +4890,7 @@
       <c r="C78" s="5">
         <v>1</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D78" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E78" s="4" t="s">
@@ -4747,7 +4909,7 @@
       <c r="C79" s="5">
         <v>2</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E79" s="4" t="s">
@@ -4766,7 +4928,7 @@
       <c r="C80" s="5">
         <v>3</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D80" s="15" t="s">
         <v>189</v>
       </c>
       <c r="E80" s="4" t="s">
@@ -4775,7 +4937,7 @@
       <c r="F80" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G80" s="6" t="s">
+      <c r="G80" s="15" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4789,7 +4951,7 @@
       <c r="C81" s="5">
         <v>2</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E81" s="4" t="s">
@@ -4808,7 +4970,7 @@
       <c r="C82" s="5">
         <v>1</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E82" s="4" t="s">
@@ -4827,7 +4989,7 @@
       <c r="C83" s="5">
         <v>2</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E83" s="4" t="s">
@@ -4846,7 +5008,7 @@
       <c r="C84" s="5">
         <v>4</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="15" t="s">
         <v>200</v>
       </c>
       <c r="E84" s="4" t="s">
@@ -4855,7 +5017,7 @@
       <c r="F84" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G84" s="6" t="s">
+      <c r="G84" s="15" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4869,7 +5031,7 @@
       <c r="C85" s="5">
         <v>2</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D85" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E85" s="4" t="s">
@@ -4888,7 +5050,7 @@
       <c r="C86" s="5">
         <v>1</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E86" s="4" t="s">
@@ -4907,7 +5069,7 @@
       <c r="C87" s="5">
         <v>2</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E87" s="4" t="s">
@@ -4926,7 +5088,7 @@
       <c r="C88" s="5">
         <v>2</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E88" s="4" t="s">
@@ -4968,7 +5130,7 @@
       <c r="C90" s="5">
         <v>1</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E90" s="4" t="s">
@@ -4987,7 +5149,7 @@
       <c r="C91" s="5">
         <v>2</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E91" s="4" t="s">
@@ -5006,7 +5168,7 @@
       <c r="C92" s="5">
         <v>2</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E92" s="4" t="s">
@@ -5048,7 +5210,7 @@
       <c r="C94" s="5">
         <v>3</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="15" t="s">
         <v>222</v>
       </c>
       <c r="E94" s="4" t="s">
@@ -5057,7 +5219,7 @@
       <c r="F94" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="G94" s="6" t="s">
+      <c r="G94" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5090,7 +5252,7 @@
       <c r="C96" s="5">
         <v>1</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E96" s="4" t="s">
@@ -5109,7 +5271,7 @@
       <c r="C97" s="5">
         <v>2</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E97" s="4" t="s">
@@ -5128,7 +5290,7 @@
       <c r="C98" s="5">
         <v>4</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="15" t="s">
         <v>224</v>
       </c>
       <c r="E98" s="4" t="s">
@@ -5137,7 +5299,7 @@
       <c r="F98" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="G98" s="6" t="s">
+      <c r="G98" s="15" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5170,7 +5332,7 @@
       <c r="C100" s="5">
         <v>2</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" s="15" t="s">
         <v>233</v>
       </c>
       <c r="E100" s="4" t="s">
@@ -5246,7 +5408,7 @@
       <c r="C104" s="5">
         <v>4</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" s="15" t="s">
         <v>239</v>
       </c>
       <c r="E104" s="4" t="s">
@@ -5255,7 +5417,7 @@
       <c r="F104" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="G104" s="6" t="s">
+      <c r="G104" s="15" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5288,7 +5450,7 @@
       <c r="C106" s="5">
         <v>2</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D106" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E106" s="4" t="s">
@@ -5326,7 +5488,7 @@
       <c r="C108" s="5">
         <v>3</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D108" s="15" t="s">
         <v>239</v>
       </c>
       <c r="E108" s="4" t="s">
@@ -5335,7 +5497,7 @@
       <c r="F108" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="G108" s="6" t="s">
+      <c r="G108" s="15" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5406,7 +5568,7 @@
       <c r="C112" s="5">
         <v>3</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="D112" s="15" t="s">
         <v>251</v>
       </c>
       <c r="E112" s="4" t="s">
@@ -5415,7 +5577,7 @@
       <c r="F112" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="G112" s="6" t="s">
+      <c r="G112" s="15" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5486,7 +5648,7 @@
       <c r="C116" s="5">
         <v>3</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="D116" s="15" t="s">
         <v>239</v>
       </c>
       <c r="E116" s="4" t="s">
@@ -5495,7 +5657,7 @@
       <c r="F116" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G116" s="6" t="s">
+      <c r="G116" s="15" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5566,7 +5728,7 @@
       <c r="C120" s="5">
         <v>4</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D120" s="15" t="s">
         <v>239</v>
       </c>
       <c r="E120" s="4" t="s">
@@ -5575,7 +5737,7 @@
       <c r="F120" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G120" s="6" t="s">
+      <c r="G120" s="15" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5688,7 +5850,7 @@
       <c r="C126" s="5">
         <v>3</v>
       </c>
-      <c r="D126" s="6" t="s">
+      <c r="D126" s="15" t="s">
         <v>219</v>
       </c>
       <c r="E126" s="4" t="s">
@@ -5697,7 +5859,7 @@
       <c r="F126" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="G126" s="6" t="s">
+      <c r="G126" s="15" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5829,7 +5991,7 @@
       <c r="C133" s="5">
         <v>4</v>
       </c>
-      <c r="D133" s="6" t="s">
+      <c r="D133" s="15" t="s">
         <v>123</v>
       </c>
       <c r="E133" s="4" t="s">
@@ -5838,7 +6000,7 @@
       <c r="F133" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="G133" s="6" t="s">
+      <c r="G133" s="15" t="s">
         <v>284</v>
       </c>
     </row>
@@ -5852,7 +6014,7 @@
       <c r="C134" s="5">
         <v>3</v>
       </c>
-      <c r="D134" s="6" t="s">
+      <c r="D134" s="15" t="s">
         <v>122</v>
       </c>
       <c r="E134" s="4" t="s">
@@ -5861,7 +6023,7 @@
       <c r="F134" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G134" s="6" t="s">
+      <c r="G134" s="15" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5898,7 +6060,7 @@
       <c r="C136" s="5">
         <v>3</v>
       </c>
-      <c r="D136" s="6" t="s">
+      <c r="D136" s="15" t="s">
         <v>141</v>
       </c>
       <c r="E136" s="4" t="s">
@@ -5907,7 +6069,7 @@
       <c r="F136" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G136" s="6" t="s">
+      <c r="G136" s="15" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5944,7 +6106,7 @@
       <c r="C138" s="5">
         <v>1</v>
       </c>
-      <c r="D138" s="6" t="s">
+      <c r="D138" s="15" t="s">
         <v>154</v>
       </c>
       <c r="E138" s="4" t="s">
@@ -5953,7 +6115,7 @@
       <c r="F138" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G138" s="6" t="s">
+      <c r="G138" s="15" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5990,7 +6152,7 @@
       <c r="C140" s="5">
         <v>3</v>
       </c>
-      <c r="D140" s="6" t="s">
+      <c r="D140" s="15" t="s">
         <v>163</v>
       </c>
       <c r="E140" s="4" t="s">
@@ -5999,7 +6161,7 @@
       <c r="F140" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G140" s="6" t="s">
+      <c r="G140" s="15" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6036,7 +6198,7 @@
       <c r="C142" s="5">
         <v>2</v>
       </c>
-      <c r="D142" s="6" t="s">
+      <c r="D142" s="15" t="s">
         <v>189</v>
       </c>
       <c r="E142" s="4" t="s">
@@ -6045,7 +6207,7 @@
       <c r="F142" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G142" s="6" t="s">
+      <c r="G142" s="15" t="s">
         <v>294</v>
       </c>
     </row>
@@ -6082,7 +6244,7 @@
       <c r="C144" s="5">
         <v>2</v>
       </c>
-      <c r="D144" s="6" t="s">
+      <c r="D144" s="15" t="s">
         <v>209</v>
       </c>
       <c r="E144" s="4" t="s">
@@ -6091,7 +6253,7 @@
       <c r="F144" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="G144" s="6" t="s">
+      <c r="G144" s="15" t="s">
         <v>300</v>
       </c>
     </row>
@@ -6128,7 +6290,7 @@
       <c r="C146" s="5">
         <v>4</v>
       </c>
-      <c r="D146" s="6" t="s">
+      <c r="D146" s="15" t="s">
         <v>225</v>
       </c>
       <c r="E146" s="4" t="s">
@@ -6137,7 +6299,7 @@
       <c r="F146" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="G146" s="6" t="s">
+      <c r="G146" s="15" t="s">
         <v>303</v>
       </c>
     </row>
@@ -6174,7 +6336,7 @@
       <c r="C148" s="5">
         <v>4</v>
       </c>
-      <c r="D148" s="6" t="s">
+      <c r="D148" s="15" t="s">
         <v>239</v>
       </c>
       <c r="E148" s="4" t="s">
@@ -6183,7 +6345,7 @@
       <c r="F148" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="G148" s="6" t="s">
+      <c r="G148" s="15" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6220,7 +6382,7 @@
       <c r="C150" s="5">
         <v>3</v>
       </c>
-      <c r="D150" s="6" t="s">
+      <c r="D150" s="15" t="s">
         <v>251</v>
       </c>
       <c r="E150" s="4" t="s">
@@ -6229,7 +6391,7 @@
       <c r="F150" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="G150" s="6" t="s">
+      <c r="G150" s="15" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6266,7 +6428,7 @@
       <c r="C152" s="5">
         <v>4</v>
       </c>
-      <c r="D152" s="6" t="s">
+      <c r="D152" s="15" t="s">
         <v>239</v>
       </c>
       <c r="E152" s="4" t="s">
@@ -6275,7 +6437,7 @@
       <c r="F152" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G152" s="6" t="s">
+      <c r="G152" s="15" t="s">
         <v>310</v>
       </c>
     </row>
@@ -6301,6 +6463,233 @@
       <c r="G153" s="4" t="s">
         <v>240</v>
       </c>
+    </row>
+    <row r="154" ht="126" spans="1:7">
+      <c r="A154" s="6">
+        <v>151</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C154" s="8">
+        <v>1</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+    </row>
+    <row r="155" ht="15.75" spans="1:7">
+      <c r="A155" s="10"/>
+      <c r="B155" s="9"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+    </row>
+    <row r="156" ht="283.5" spans="1:7">
+      <c r="A156" s="10">
+        <v>152</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C156" s="8">
+        <v>4</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="G156" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="157" ht="315" spans="1:7">
+      <c r="A157" s="10">
+        <v>153</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C157" s="8">
+        <v>2</v>
+      </c>
+      <c r="D157" s="9">
+        <v>3</v>
+      </c>
+      <c r="E157" s="9">
+        <v>5</v>
+      </c>
+      <c r="F157" s="9">
+        <v>10</v>
+      </c>
+      <c r="G157" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" ht="236.25" spans="1:7">
+      <c r="A158" s="10">
+        <v>154</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C158" s="8">
+        <v>1</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="G158" s="9"/>
+    </row>
+    <row r="159" ht="252" spans="1:7">
+      <c r="A159" s="10">
+        <v>155</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C159" s="8">
+        <v>3</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="160" ht="409.5" spans="1:7">
+      <c r="A160" s="10">
+        <v>156</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C160" s="8">
+        <v>1</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="G160" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="161" ht="204.75" spans="1:7">
+      <c r="A161" s="10">
+        <v>157</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="C161" s="8">
+        <v>3</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E161" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="G161" s="14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="162" ht="236.25" spans="1:7">
+      <c r="A162" s="10">
+        <v>158</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C162" s="8">
+        <v>2</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="G162" s="9"/>
+    </row>
+    <row r="163" ht="393.75" spans="1:7">
+      <c r="A163" s="10">
+        <v>159</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C163" s="8">
+        <v>2</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="E163" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="G163" s="9"/>
+    </row>
+    <row r="164" ht="252" spans="1:7">
+      <c r="A164" s="10">
+        <v>160</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C164" s="8">
+        <v>2</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="E164" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="F164" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="G164" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/sgm/SIG.xlsx
+++ b/data/sgm/SIG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830"/>
+    <workbookView windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="313">
   <si>
     <t>LÝ THUYẾT CHUNG ĐÁNH TÍN HIỆU TÀU BAY</t>
   </si>
@@ -2078,137 +2078,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bay treo. </t>
-  </si>
-  <si>
-    <t>Tàu bay phải tuân theo mọi hướng dẫn của nhân viên đánh tín hiệu</t>
-  </si>
-  <si>
-    <t>Vị trí đứng của nhân viên Đánh tín hiệu khi thực hiện nhiệm vụ: Nhân viên đánh tín hiệu phải đứng quay mặt về phía tàu bay. Đối với trực thăng là:</t>
-  </si>
-  <si>
-    <t>Ở bên phải tàu bay nơi tổ lái được nhìn thấy rõ nhất</t>
-  </si>
-  <si>
-    <t>ở chính giữa tàu bay, thẳng theo vệt lăn vào vị trí đỗ.</t>
-  </si>
-  <si>
-    <t>Ở bên trái tàu bay nơi tổ lái được nhìn thấy rõ nhất</t>
-  </si>
-  <si>
-    <t>Ở vị trí mà tổ lái có thể nhìn thấy rõ nhất</t>
-  </si>
-  <si>
-    <t>Chuyên cơ: Đối với chuyến bay đến: …… phút trước khi tàu bay hạ cánh, dành riêng đường cất hạ cánh đã được xác định để phục vụ chuyên cơ.</t>
-  </si>
-  <si>
-    <t>Đối với chuyến bay chuyên cơ đi: Vị trí đỗ của tàu bay chuyên cơ được bảo vệ và cách ly từ thời điểm tàu bay chuyên cơ…..</t>
-  </si>
-  <si>
-    <t>vào vị trí để thực hiện các công việc chuẩn bị cho chuyến bay.</t>
-  </si>
-  <si>
-    <t>bắt đầu nổ máy để khởi hành.</t>
-  </si>
-  <si>
-    <t>đóng tất cả các cửa tàu bay</t>
-  </si>
-  <si>
-    <t>Đối với chuyến bay chuyên cơ đi: sau khi tàu bay chuyên cơ ……. thì khu vực sân đỗ được trở lại hoạt động bình thường.</t>
-  </si>
-  <si>
-    <t>lên đường cất hạ cánh</t>
-  </si>
-  <si>
-    <t>rời khỏi khu vực sân đỗ</t>
-  </si>
-  <si>
-    <t>lên đường lăn</t>
-  </si>
-  <si>
-    <t>cất cánh</t>
-  </si>
-  <si>
-    <t>Cơ sở ATS bao gồm:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) Cơ sở điều hành bay bao gồm đài kiểm soát tại sân bay, cơ sở kiểm soát tiếp cận, trung tâm kiểm soát đường dài;
-b) Phòng thủ tục bay;
-c) Cơ sở, bộ phận đánh tín hiệu tại sân bay;
-d) Cơ sở thông báo, hiệp đồng bay;
-đ) Trạm thông báo bay tại sân bay.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) Phòng thủ tục bay;
-b) Cơ sở, bộ phận đánh tín hiệu tại sân bay;
-c) Cơ sở thông báo, hiệp đồng bay;
-d) Trạm thông báo bay tại sân bay.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) Cơ sở điều hành bay bao gồm đài kiểm soát tại sân bay, cơ sở kiểm soát tiếp cận, trung tâm kiểm soát đường dài;
-b) Phòng thủ tục bay;
-c) Cơ sở thông báo, hiệp đồng bay;
-d) Trạm thông báo bay tại sân bay.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) Cơ sở điều hành bay bao gồm đài kiểm soát tại sân bay, cơ sở kiểm soát tiếp cận, trung tâm kiểm soát đường dài;
-b) Cơ sở, bộ phận đánh tín hiệu tại sân bay;
-c) Cơ sở thông báo, hiệp đồng bay;
-d) Trạm thông báo bay tại sân bay.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khu vực di chuyển tại sân bay (Manoeuvring Area) là </t>
-  </si>
-  <si>
-    <t>một phần của sân bay được sử dụng cho tàu bay cất cánh, hạ cánh và lăn bánh,  bao gồm sân đỗ tàu bay</t>
-  </si>
-  <si>
-    <t>một phần của sân bay được sử dụng cho tàu bay cất cánh, hạ cánh, lăn bánh và đỗ.</t>
-  </si>
-  <si>
-    <t>một phần của sân bay được sử dụng cho tàu bay cất cánh, hạ cánh và lăn bánh, không bao gồm sân đỗ tàu bay</t>
-  </si>
-  <si>
-    <t>Cả 3 đều sai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khu vực hoạt động tại sân bay (Movement Area) là </t>
-  </si>
-  <si>
-    <t>một phần của sân bay được sử dụng cho tàu bay cất cánh, hạ cánh, lăn bánh và đỗ</t>
-  </si>
-  <si>
-    <t>một phần của sân bay được sử dụng cho tàu bay cất cánh, hạ cánh, lăn bánh và đỗ, bao gồm khu vực di chuyển và sân đỗ tàu bay.</t>
-  </si>
-  <si>
-    <t>một phần của sân bay được sử dụng cho tàu bay cất cánh, hạ cánh, lăn bánh và đỗ,không bao gồm khu vực di chuyển và sân đỗ tàu bay.</t>
-  </si>
-  <si>
-    <t>Sân đỗ tàu bay (Apron) là</t>
-  </si>
-  <si>
-    <t>khu vực được xác định trong sân bay dành cho tàu bay đỗ để phục vụ hành khách lên, xuống; xếp, dỡ hành lý, bưu gửi, hàng hóa; tiếp nhiên liệu; cung ứng suất ăn.</t>
-  </si>
-  <si>
-    <t>khu vực được xác định trong sân bay dành cho tàu bay đỗ để phục vụ hành khách lên, xuống; xếp, dỡ hành lý, bưu gửi, hàng hóa; tiếp nhiên liệu; cung ứng suất ăn; phục vụ kỹ thuật hoặc bảo dưỡng tàu bay.</t>
-  </si>
-  <si>
-    <t>khu vực được xác định trong sân bay dành cho tàu bay đỗ để dỡ hành lý, bưu gửi, hàng hóa; tiếp nhiên liệu; cung ứng suất ăn; phục vụ kỹ thuật hoặc bảo dưỡng tàu bay.</t>
-  </si>
-  <si>
-    <t>Nhân viên đánh tín hiệu phải …………. , nếu không tàu bay có thể bị va chạm do tuân theo hướng dẫn của mình.</t>
-  </si>
-  <si>
-    <t>quan sát khu vực mà mình hướng dẫn tàu bay di chuyển tới vị trí chỉ định hoàn toàn không có chướng ngại vật</t>
-  </si>
-  <si>
-    <t>quan sát và đảm bảo chắc chắn rằng khu vực mà mình hướng dẫn tàu bay di chuyển tới vị trí chỉ định hoàn toàn không có chướng ngại vật</t>
-  </si>
-  <si>
-    <t>đảm bảo chắc chắn rằng khu vực tàu bay di chuyển tới không có chướng ngại vật.</t>
   </si>
 </sst>
 </file>
@@ -2216,10 +2085,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2250,33 +2119,8 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2289,10 +2133,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2306,7 +2151,63 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2326,37 +2227,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -2366,7 +2236,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2386,9 +2256,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2416,7 +2285,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2425,13 +2294,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2449,169 +2468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2649,6 +2512,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2673,6 +2545,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2683,6 +2570,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2702,60 +2604,21 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2767,134 +2630,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2910,31 +2773,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3287,10 +3125,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G164"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G164"/>
+      <selection activeCell="A1" sqref="A1:G153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3397,7 +3235,7 @@
       <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -4372,7 +4210,7 @@
       <c r="C52" s="5">
         <v>2</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="6" t="s">
         <v>154</v>
       </c>
       <c r="E52" s="4" t="s">
@@ -4381,7 +4219,7 @@
       <c r="F52" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G52" s="15" t="s">
+      <c r="G52" s="6" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4456,7 +4294,7 @@
       <c r="C56" s="5">
         <v>1</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E56" s="4" t="s">
@@ -4475,7 +4313,7 @@
       <c r="C57" s="5">
         <v>2</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="D57" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E57" s="4" t="s">
@@ -4494,7 +4332,7 @@
       <c r="C58" s="5">
         <v>2</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E58" s="4" t="s">
@@ -4513,7 +4351,7 @@
       <c r="C59" s="5">
         <v>2</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E59" s="4" t="s">
@@ -4532,7 +4370,7 @@
       <c r="C60" s="5">
         <v>1</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="6" t="s">
         <v>163</v>
       </c>
       <c r="E60" s="4" t="s">
@@ -4541,7 +4379,7 @@
       <c r="F60" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G60" s="15" t="s">
+      <c r="G60" s="6" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4555,7 +4393,7 @@
       <c r="C61" s="5">
         <v>1</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="D61" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E61" s="4" t="s">
@@ -4574,7 +4412,7 @@
       <c r="C62" s="5">
         <v>2</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="D62" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E62" s="4" t="s">
@@ -4593,7 +4431,7 @@
       <c r="C63" s="5">
         <v>2</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E63" s="4" t="s">
@@ -4612,7 +4450,7 @@
       <c r="C64" s="5">
         <v>1</v>
       </c>
-      <c r="D64" s="15" t="s">
+      <c r="D64" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E64" s="4" t="s">
@@ -4631,7 +4469,7 @@
       <c r="C65" s="5">
         <v>2</v>
       </c>
-      <c r="D65" s="15" t="s">
+      <c r="D65" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E65" s="4" t="s">
@@ -4650,7 +4488,7 @@
       <c r="C66" s="5">
         <v>3</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D66" s="6" t="s">
         <v>163</v>
       </c>
       <c r="E66" s="4" t="s">
@@ -4659,7 +4497,7 @@
       <c r="F66" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G66" s="15" t="s">
+      <c r="G66" s="6" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4673,7 +4511,7 @@
       <c r="C67" s="5">
         <v>2</v>
       </c>
-      <c r="D67" s="15" t="s">
+      <c r="D67" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E67" s="4" t="s">
@@ -4692,7 +4530,7 @@
       <c r="C68" s="5">
         <v>1</v>
       </c>
-      <c r="D68" s="15" t="s">
+      <c r="D68" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E68" s="4" t="s">
@@ -4711,7 +4549,7 @@
       <c r="C69" s="5">
         <v>2</v>
       </c>
-      <c r="D69" s="15" t="s">
+      <c r="D69" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E69" s="4" t="s">
@@ -4730,7 +4568,7 @@
       <c r="C70" s="5">
         <v>2</v>
       </c>
-      <c r="D70" s="15" t="s">
+      <c r="D70" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E70" s="4" t="s">
@@ -4772,7 +4610,7 @@
       <c r="C72" s="5">
         <v>1</v>
       </c>
-      <c r="D72" s="15" t="s">
+      <c r="D72" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E72" s="4" t="s">
@@ -4791,7 +4629,7 @@
       <c r="C73" s="5">
         <v>2</v>
       </c>
-      <c r="D73" s="15" t="s">
+      <c r="D73" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E73" s="4" t="s">
@@ -4810,7 +4648,7 @@
       <c r="C74" s="5">
         <v>2</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="D74" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E74" s="4" t="s">
@@ -4829,7 +4667,7 @@
       <c r="C75" s="5">
         <v>2</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="D75" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E75" s="4" t="s">
@@ -4848,7 +4686,7 @@
       <c r="C76" s="5">
         <v>4</v>
       </c>
-      <c r="D76" s="15" t="s">
+      <c r="D76" s="6" t="s">
         <v>186</v>
       </c>
       <c r="E76" s="4" t="s">
@@ -4857,7 +4695,7 @@
       <c r="F76" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G76" s="15" t="s">
+      <c r="G76" s="6" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4871,7 +4709,7 @@
       <c r="C77" s="5">
         <v>2</v>
       </c>
-      <c r="D77" s="15" t="s">
+      <c r="D77" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E77" s="4" t="s">
@@ -4890,7 +4728,7 @@
       <c r="C78" s="5">
         <v>1</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D78" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E78" s="4" t="s">
@@ -4909,7 +4747,7 @@
       <c r="C79" s="5">
         <v>2</v>
       </c>
-      <c r="D79" s="15" t="s">
+      <c r="D79" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E79" s="4" t="s">
@@ -4928,7 +4766,7 @@
       <c r="C80" s="5">
         <v>3</v>
       </c>
-      <c r="D80" s="15" t="s">
+      <c r="D80" s="6" t="s">
         <v>189</v>
       </c>
       <c r="E80" s="4" t="s">
@@ -4937,7 +4775,7 @@
       <c r="F80" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G80" s="15" t="s">
+      <c r="G80" s="6" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4951,7 +4789,7 @@
       <c r="C81" s="5">
         <v>2</v>
       </c>
-      <c r="D81" s="15" t="s">
+      <c r="D81" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E81" s="4" t="s">
@@ -4970,7 +4808,7 @@
       <c r="C82" s="5">
         <v>1</v>
       </c>
-      <c r="D82" s="15" t="s">
+      <c r="D82" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E82" s="4" t="s">
@@ -4989,7 +4827,7 @@
       <c r="C83" s="5">
         <v>2</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="D83" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E83" s="4" t="s">
@@ -5008,7 +4846,7 @@
       <c r="C84" s="5">
         <v>4</v>
       </c>
-      <c r="D84" s="15" t="s">
+      <c r="D84" s="6" t="s">
         <v>200</v>
       </c>
       <c r="E84" s="4" t="s">
@@ -5017,7 +4855,7 @@
       <c r="F84" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G84" s="15" t="s">
+      <c r="G84" s="6" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5031,7 +4869,7 @@
       <c r="C85" s="5">
         <v>2</v>
       </c>
-      <c r="D85" s="15" t="s">
+      <c r="D85" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E85" s="4" t="s">
@@ -5050,7 +4888,7 @@
       <c r="C86" s="5">
         <v>1</v>
       </c>
-      <c r="D86" s="15" t="s">
+      <c r="D86" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E86" s="4" t="s">
@@ -5069,7 +4907,7 @@
       <c r="C87" s="5">
         <v>2</v>
       </c>
-      <c r="D87" s="15" t="s">
+      <c r="D87" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E87" s="4" t="s">
@@ -5088,7 +4926,7 @@
       <c r="C88" s="5">
         <v>2</v>
       </c>
-      <c r="D88" s="15" t="s">
+      <c r="D88" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E88" s="4" t="s">
@@ -5130,7 +4968,7 @@
       <c r="C90" s="5">
         <v>1</v>
       </c>
-      <c r="D90" s="15" t="s">
+      <c r="D90" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E90" s="4" t="s">
@@ -5149,7 +4987,7 @@
       <c r="C91" s="5">
         <v>2</v>
       </c>
-      <c r="D91" s="15" t="s">
+      <c r="D91" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E91" s="4" t="s">
@@ -5168,7 +5006,7 @@
       <c r="C92" s="5">
         <v>2</v>
       </c>
-      <c r="D92" s="15" t="s">
+      <c r="D92" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E92" s="4" t="s">
@@ -5210,7 +5048,7 @@
       <c r="C94" s="5">
         <v>3</v>
       </c>
-      <c r="D94" s="15" t="s">
+      <c r="D94" s="6" t="s">
         <v>222</v>
       </c>
       <c r="E94" s="4" t="s">
@@ -5219,7 +5057,7 @@
       <c r="F94" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="G94" s="15" t="s">
+      <c r="G94" s="6" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5252,7 +5090,7 @@
       <c r="C96" s="5">
         <v>1</v>
       </c>
-      <c r="D96" s="15" t="s">
+      <c r="D96" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E96" s="4" t="s">
@@ -5271,7 +5109,7 @@
       <c r="C97" s="5">
         <v>2</v>
       </c>
-      <c r="D97" s="15" t="s">
+      <c r="D97" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E97" s="4" t="s">
@@ -5290,7 +5128,7 @@
       <c r="C98" s="5">
         <v>4</v>
       </c>
-      <c r="D98" s="15" t="s">
+      <c r="D98" s="6" t="s">
         <v>224</v>
       </c>
       <c r="E98" s="4" t="s">
@@ -5299,7 +5137,7 @@
       <c r="F98" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="G98" s="15" t="s">
+      <c r="G98" s="6" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5332,7 +5170,7 @@
       <c r="C100" s="5">
         <v>2</v>
       </c>
-      <c r="D100" s="15" t="s">
+      <c r="D100" s="6" t="s">
         <v>233</v>
       </c>
       <c r="E100" s="4" t="s">
@@ -5408,7 +5246,7 @@
       <c r="C104" s="5">
         <v>4</v>
       </c>
-      <c r="D104" s="15" t="s">
+      <c r="D104" s="6" t="s">
         <v>239</v>
       </c>
       <c r="E104" s="4" t="s">
@@ -5417,7 +5255,7 @@
       <c r="F104" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="G104" s="15" t="s">
+      <c r="G104" s="6" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5450,7 +5288,7 @@
       <c r="C106" s="5">
         <v>2</v>
       </c>
-      <c r="D106" s="15" t="s">
+      <c r="D106" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E106" s="4" t="s">
@@ -5488,7 +5326,7 @@
       <c r="C108" s="5">
         <v>3</v>
       </c>
-      <c r="D108" s="15" t="s">
+      <c r="D108" s="6" t="s">
         <v>239</v>
       </c>
       <c r="E108" s="4" t="s">
@@ -5497,7 +5335,7 @@
       <c r="F108" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="G108" s="15" t="s">
+      <c r="G108" s="6" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5568,7 +5406,7 @@
       <c r="C112" s="5">
         <v>3</v>
       </c>
-      <c r="D112" s="15" t="s">
+      <c r="D112" s="6" t="s">
         <v>251</v>
       </c>
       <c r="E112" s="4" t="s">
@@ -5577,7 +5415,7 @@
       <c r="F112" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="G112" s="15" t="s">
+      <c r="G112" s="6" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5648,7 +5486,7 @@
       <c r="C116" s="5">
         <v>3</v>
       </c>
-      <c r="D116" s="15" t="s">
+      <c r="D116" s="6" t="s">
         <v>239</v>
       </c>
       <c r="E116" s="4" t="s">
@@ -5657,7 +5495,7 @@
       <c r="F116" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G116" s="15" t="s">
+      <c r="G116" s="6" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5728,7 +5566,7 @@
       <c r="C120" s="5">
         <v>4</v>
       </c>
-      <c r="D120" s="15" t="s">
+      <c r="D120" s="6" t="s">
         <v>239</v>
       </c>
       <c r="E120" s="4" t="s">
@@ -5737,7 +5575,7 @@
       <c r="F120" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G120" s="15" t="s">
+      <c r="G120" s="6" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5850,7 +5688,7 @@
       <c r="C126" s="5">
         <v>3</v>
       </c>
-      <c r="D126" s="15" t="s">
+      <c r="D126" s="6" t="s">
         <v>219</v>
       </c>
       <c r="E126" s="4" t="s">
@@ -5859,7 +5697,7 @@
       <c r="F126" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="G126" s="15" t="s">
+      <c r="G126" s="6" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5991,7 +5829,7 @@
       <c r="C133" s="5">
         <v>4</v>
       </c>
-      <c r="D133" s="15" t="s">
+      <c r="D133" s="6" t="s">
         <v>123</v>
       </c>
       <c r="E133" s="4" t="s">
@@ -6000,7 +5838,7 @@
       <c r="F133" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="G133" s="15" t="s">
+      <c r="G133" s="6" t="s">
         <v>284</v>
       </c>
     </row>
@@ -6014,7 +5852,7 @@
       <c r="C134" s="5">
         <v>3</v>
       </c>
-      <c r="D134" s="15" t="s">
+      <c r="D134" s="6" t="s">
         <v>122</v>
       </c>
       <c r="E134" s="4" t="s">
@@ -6023,7 +5861,7 @@
       <c r="F134" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G134" s="15" t="s">
+      <c r="G134" s="6" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6060,7 +5898,7 @@
       <c r="C136" s="5">
         <v>3</v>
       </c>
-      <c r="D136" s="15" t="s">
+      <c r="D136" s="6" t="s">
         <v>141</v>
       </c>
       <c r="E136" s="4" t="s">
@@ -6069,7 +5907,7 @@
       <c r="F136" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G136" s="15" t="s">
+      <c r="G136" s="6" t="s">
         <v>288</v>
       </c>
     </row>
@@ -6106,7 +5944,7 @@
       <c r="C138" s="5">
         <v>1</v>
       </c>
-      <c r="D138" s="15" t="s">
+      <c r="D138" s="6" t="s">
         <v>154</v>
       </c>
       <c r="E138" s="4" t="s">
@@ -6115,7 +5953,7 @@
       <c r="F138" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G138" s="15" t="s">
+      <c r="G138" s="6" t="s">
         <v>156</v>
       </c>
     </row>
@@ -6152,7 +5990,7 @@
       <c r="C140" s="5">
         <v>3</v>
       </c>
-      <c r="D140" s="15" t="s">
+      <c r="D140" s="6" t="s">
         <v>163</v>
       </c>
       <c r="E140" s="4" t="s">
@@ -6161,7 +5999,7 @@
       <c r="F140" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G140" s="15" t="s">
+      <c r="G140" s="6" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6198,7 +6036,7 @@
       <c r="C142" s="5">
         <v>2</v>
       </c>
-      <c r="D142" s="15" t="s">
+      <c r="D142" s="6" t="s">
         <v>189</v>
       </c>
       <c r="E142" s="4" t="s">
@@ -6207,7 +6045,7 @@
       <c r="F142" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G142" s="15" t="s">
+      <c r="G142" s="6" t="s">
         <v>294</v>
       </c>
     </row>
@@ -6244,7 +6082,7 @@
       <c r="C144" s="5">
         <v>2</v>
       </c>
-      <c r="D144" s="15" t="s">
+      <c r="D144" s="6" t="s">
         <v>209</v>
       </c>
       <c r="E144" s="4" t="s">
@@ -6253,7 +6091,7 @@
       <c r="F144" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="G144" s="15" t="s">
+      <c r="G144" s="6" t="s">
         <v>300</v>
       </c>
     </row>
@@ -6290,7 +6128,7 @@
       <c r="C146" s="5">
         <v>4</v>
       </c>
-      <c r="D146" s="15" t="s">
+      <c r="D146" s="6" t="s">
         <v>225</v>
       </c>
       <c r="E146" s="4" t="s">
@@ -6299,7 +6137,7 @@
       <c r="F146" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="G146" s="15" t="s">
+      <c r="G146" s="6" t="s">
         <v>303</v>
       </c>
     </row>
@@ -6336,7 +6174,7 @@
       <c r="C148" s="5">
         <v>4</v>
       </c>
-      <c r="D148" s="15" t="s">
+      <c r="D148" s="6" t="s">
         <v>239</v>
       </c>
       <c r="E148" s="4" t="s">
@@ -6345,7 +6183,7 @@
       <c r="F148" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="G148" s="15" t="s">
+      <c r="G148" s="6" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6382,7 +6220,7 @@
       <c r="C150" s="5">
         <v>3</v>
       </c>
-      <c r="D150" s="15" t="s">
+      <c r="D150" s="6" t="s">
         <v>251</v>
       </c>
       <c r="E150" s="4" t="s">
@@ -6391,7 +6229,7 @@
       <c r="F150" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="G150" s="15" t="s">
+      <c r="G150" s="6" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6428,7 +6266,7 @@
       <c r="C152" s="5">
         <v>4</v>
       </c>
-      <c r="D152" s="15" t="s">
+      <c r="D152" s="6" t="s">
         <v>239</v>
       </c>
       <c r="E152" s="4" t="s">
@@ -6437,7 +6275,7 @@
       <c r="F152" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G152" s="15" t="s">
+      <c r="G152" s="6" t="s">
         <v>310</v>
       </c>
     </row>
@@ -6463,233 +6301,6 @@
       <c r="G153" s="4" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="154" ht="126" spans="1:7">
-      <c r="A154" s="6">
-        <v>151</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C154" s="8">
-        <v>1</v>
-      </c>
-      <c r="D154" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E154" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F154" s="9"/>
-      <c r="G154" s="9"/>
-    </row>
-    <row r="155" ht="15.75" spans="1:7">
-      <c r="A155" s="10"/>
-      <c r="B155" s="9"/>
-      <c r="C155" s="8"/>
-      <c r="D155" s="9"/>
-      <c r="E155" s="9"/>
-      <c r="F155" s="9"/>
-      <c r="G155" s="9"/>
-    </row>
-    <row r="156" ht="283.5" spans="1:7">
-      <c r="A156" s="10">
-        <v>152</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="C156" s="8">
-        <v>4</v>
-      </c>
-      <c r="D156" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="E156" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="F156" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="G156" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="157" ht="315" spans="1:7">
-      <c r="A157" s="10">
-        <v>153</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="C157" s="8">
-        <v>2</v>
-      </c>
-      <c r="D157" s="9">
-        <v>3</v>
-      </c>
-      <c r="E157" s="9">
-        <v>5</v>
-      </c>
-      <c r="F157" s="9">
-        <v>10</v>
-      </c>
-      <c r="G157" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="158" ht="236.25" spans="1:7">
-      <c r="A158" s="10">
-        <v>154</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="C158" s="8">
-        <v>1</v>
-      </c>
-      <c r="D158" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="E158" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="F158" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="G158" s="9"/>
-    </row>
-    <row r="159" ht="252" spans="1:7">
-      <c r="A159" s="10">
-        <v>155</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C159" s="8">
-        <v>3</v>
-      </c>
-      <c r="D159" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="E159" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="F159" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="G159" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="160" ht="409.5" spans="1:7">
-      <c r="A160" s="10">
-        <v>156</v>
-      </c>
-      <c r="B160" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="C160" s="8">
-        <v>1</v>
-      </c>
-      <c r="D160" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="E160" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="F160" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="G160" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="161" ht="204.75" spans="1:7">
-      <c r="A161" s="10">
-        <v>157</v>
-      </c>
-      <c r="B161" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="C161" s="8">
-        <v>3</v>
-      </c>
-      <c r="D161" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="E161" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="F161" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="G161" s="14" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="162" ht="236.25" spans="1:7">
-      <c r="A162" s="10">
-        <v>158</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C162" s="8">
-        <v>2</v>
-      </c>
-      <c r="D162" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="E162" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="F162" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="G162" s="9"/>
-    </row>
-    <row r="163" ht="393.75" spans="1:7">
-      <c r="A163" s="10">
-        <v>159</v>
-      </c>
-      <c r="B163" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="C163" s="8">
-        <v>2</v>
-      </c>
-      <c r="D163" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="E163" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="F163" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="G163" s="9"/>
-    </row>
-    <row r="164" ht="252" spans="1:7">
-      <c r="A164" s="10">
-        <v>160</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="C164" s="8">
-        <v>2</v>
-      </c>
-      <c r="D164" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="E164" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="F164" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="G164" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
